--- a/goalnewpkg.xlsx
+++ b/goalnewpkg.xlsx
@@ -305,7 +305,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J17" totalsRowShown="0">
-  <autoFilter ref="A1:J17"/>
+  <autoFilter ref="A1:J17">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="TestScenarioID"/>
     <tableColumn id="2" name="TestCaseID"/>
@@ -685,7 +691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -699,7 +705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -713,7 +719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -727,7 +733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="E6" t="s">
         <v>29</v>
       </c>
@@ -741,7 +747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1">
       <c r="E7" t="s">
         <v>33</v>
       </c>
@@ -755,7 +761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1">
       <c r="E8" t="s">
         <v>37</v>
       </c>
@@ -769,7 +775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="E9" t="s">
         <v>41</v>
       </c>
@@ -783,7 +789,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1">
       <c r="E10" t="s">
         <v>45</v>
       </c>
@@ -797,7 +803,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1">
       <c r="E11" t="s">
         <v>49</v>
       </c>
@@ -811,7 +817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" hidden="1">
       <c r="E12" t="s">
         <v>53</v>
       </c>
@@ -825,7 +831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1">
       <c r="E13" t="s">
         <v>57</v>
       </c>
@@ -839,7 +845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1">
       <c r="E14" t="s">
         <v>61</v>
       </c>
@@ -853,7 +859,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1">
       <c r="E15" t="s">
         <v>65</v>
       </c>
@@ -867,7 +873,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1">
       <c r="E16" t="s">
         <v>69</v>
       </c>
@@ -881,7 +887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="6:8">
+    <row r="17" spans="6:8" hidden="1">
       <c r="F17" t="s">
         <v>73</v>
       </c>
